--- a/published-data/fonds-solidarite/fds-2020-06-24/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-06-24/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -663,10 +663,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>9460</v>
+        <v>9542</v>
       </c>
       <c r="D2">
-        <v>12981507</v>
+        <v>13098390</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -715,10 +715,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>19257</v>
+        <v>19327</v>
       </c>
       <c r="D4">
-        <v>24703462</v>
+        <v>24795449</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -741,10 +741,10 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D5">
-        <v>215753</v>
+        <v>217253</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -767,10 +767,10 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>1040</v>
+        <v>1047</v>
       </c>
       <c r="D6">
-        <v>1286619</v>
+        <v>1296207</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -793,10 +793,10 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>54132</v>
+        <v>54387</v>
       </c>
       <c r="D7">
-        <v>77915394</v>
+        <v>78288844</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -819,10 +819,10 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>69657</v>
+        <v>69892</v>
       </c>
       <c r="D8">
-        <v>92992581</v>
+        <v>93308581</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -845,10 +845,10 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>17892</v>
+        <v>18008</v>
       </c>
       <c r="D9">
-        <v>24888054</v>
+        <v>25049174</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -871,10 +871,10 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>55961</v>
+        <v>56206</v>
       </c>
       <c r="D10">
-        <v>80406385</v>
+        <v>80747776</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -897,10 +897,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>7546</v>
+        <v>7582</v>
       </c>
       <c r="D11">
-        <v>9895932</v>
+        <v>9943553</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -923,10 +923,10 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>3359</v>
+        <v>3372</v>
       </c>
       <c r="D12">
-        <v>4741288</v>
+        <v>4760092</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -949,10 +949,10 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <v>12757</v>
+        <v>12804</v>
       </c>
       <c r="D13">
-        <v>17330703</v>
+        <v>17392375</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -975,10 +975,10 @@
         <v>9</v>
       </c>
       <c r="C14">
-        <v>39910</v>
+        <v>40030</v>
       </c>
       <c r="D14">
-        <v>54027008</v>
+        <v>54189801</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -1001,10 +1001,10 @@
         <v>9</v>
       </c>
       <c r="C15">
-        <v>18688</v>
+        <v>18745</v>
       </c>
       <c r="D15">
-        <v>24209281</v>
+        <v>24282461</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -1053,10 +1053,10 @@
         <v>9</v>
       </c>
       <c r="C17">
-        <v>37376</v>
+        <v>37469</v>
       </c>
       <c r="D17">
-        <v>47622274</v>
+        <v>47745164</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -1079,10 +1079,10 @@
         <v>9</v>
       </c>
       <c r="C18">
-        <v>44863</v>
+        <v>44975</v>
       </c>
       <c r="D18">
-        <v>60215015</v>
+        <v>60357758</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -1105,10 +1105,10 @@
         <v>9</v>
       </c>
       <c r="C19">
-        <v>21995</v>
+        <v>22072</v>
       </c>
       <c r="D19">
-        <v>26992629</v>
+        <v>27093292</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -1131,10 +1131,10 @@
         <v>9</v>
       </c>
       <c r="C20">
-        <v>46414</v>
+        <v>46484</v>
       </c>
       <c r="D20">
-        <v>56780016</v>
+        <v>56863672</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -1157,10 +1157,10 @@
         <v>9</v>
       </c>
       <c r="C21">
-        <v>3264</v>
+        <v>3287</v>
       </c>
       <c r="D21">
-        <v>4489442</v>
+        <v>4523256</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -1209,10 +1209,10 @@
         <v>9</v>
       </c>
       <c r="C23">
-        <v>5386</v>
+        <v>5397</v>
       </c>
       <c r="D23">
-        <v>6802591</v>
+        <v>6814869</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
@@ -1261,10 +1261,10 @@
         <v>9</v>
       </c>
       <c r="C25">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="D25">
-        <v>544263</v>
+        <v>549673</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -1287,10 +1287,10 @@
         <v>9</v>
       </c>
       <c r="C26">
-        <v>13384</v>
+        <v>13420</v>
       </c>
       <c r="D26">
-        <v>19191263</v>
+        <v>19241985</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
@@ -1313,10 +1313,10 @@
         <v>9</v>
       </c>
       <c r="C27">
-        <v>21650</v>
+        <v>21709</v>
       </c>
       <c r="D27">
-        <v>28523509</v>
+        <v>28597899</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -1339,10 +1339,10 @@
         <v>9</v>
       </c>
       <c r="C28">
-        <v>2530</v>
+        <v>2546</v>
       </c>
       <c r="D28">
-        <v>3441402</v>
+        <v>3464387</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
@@ -1365,10 +1365,10 @@
         <v>9</v>
       </c>
       <c r="C29">
-        <v>16280</v>
+        <v>16348</v>
       </c>
       <c r="D29">
-        <v>23227017</v>
+        <v>23323434</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
@@ -1391,10 +1391,10 @@
         <v>9</v>
       </c>
       <c r="C30">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="D30">
-        <v>1727997</v>
+        <v>1732497</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
@@ -1417,10 +1417,10 @@
         <v>9</v>
       </c>
       <c r="C31">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="D31">
-        <v>1104576</v>
+        <v>1107792</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
@@ -1443,10 +1443,10 @@
         <v>9</v>
       </c>
       <c r="C32">
-        <v>2863</v>
+        <v>2874</v>
       </c>
       <c r="D32">
-        <v>3795123</v>
+        <v>3810470</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
@@ -1469,10 +1469,10 @@
         <v>9</v>
       </c>
       <c r="C33">
-        <v>7769</v>
+        <v>7799</v>
       </c>
       <c r="D33">
-        <v>10500671</v>
+        <v>10545300</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
@@ -1495,10 +1495,10 @@
         <v>9</v>
       </c>
       <c r="C34">
-        <v>3841</v>
+        <v>3858</v>
       </c>
       <c r="D34">
-        <v>4884548</v>
+        <v>4906422</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
@@ -1547,10 +1547,10 @@
         <v>9</v>
       </c>
       <c r="C36">
-        <v>5503</v>
+        <v>5521</v>
       </c>
       <c r="D36">
-        <v>6628678</v>
+        <v>6649927</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
@@ -1573,10 +1573,10 @@
         <v>9</v>
       </c>
       <c r="C37">
-        <v>9848</v>
+        <v>9870</v>
       </c>
       <c r="D37">
-        <v>13118806</v>
+        <v>13150576</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
@@ -1599,10 +1599,10 @@
         <v>9</v>
       </c>
       <c r="C38">
-        <v>5582</v>
+        <v>5605</v>
       </c>
       <c r="D38">
-        <v>6686175</v>
+        <v>6714134</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
@@ -1625,10 +1625,10 @@
         <v>9</v>
       </c>
       <c r="C39">
-        <v>14246</v>
+        <v>14273</v>
       </c>
       <c r="D39">
-        <v>17590768</v>
+        <v>17619261</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
@@ -1651,10 +1651,10 @@
         <v>9</v>
       </c>
       <c r="C40">
-        <v>2719</v>
+        <v>2726</v>
       </c>
       <c r="D40">
-        <v>3715274</v>
+        <v>3725319</v>
       </c>
       <c r="E40" t="s">
         <v>12</v>
@@ -1703,10 +1703,10 @@
         <v>9</v>
       </c>
       <c r="C42">
-        <v>7203</v>
+        <v>7225</v>
       </c>
       <c r="D42">
-        <v>8893540</v>
+        <v>8924057</v>
       </c>
       <c r="E42" t="s">
         <v>12</v>
@@ -1729,10 +1729,10 @@
         <v>9</v>
       </c>
       <c r="C43">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D43">
-        <v>34245</v>
+        <v>35745</v>
       </c>
       <c r="E43" t="s">
         <v>12</v>
@@ -1781,10 +1781,10 @@
         <v>9</v>
       </c>
       <c r="C45">
-        <v>15030</v>
+        <v>15065</v>
       </c>
       <c r="D45">
-        <v>21503095</v>
+        <v>21549788</v>
       </c>
       <c r="E45" t="s">
         <v>12</v>
@@ -1807,10 +1807,10 @@
         <v>9</v>
       </c>
       <c r="C46">
-        <v>23546</v>
+        <v>23605</v>
       </c>
       <c r="D46">
-        <v>31564663</v>
+        <v>31647035</v>
       </c>
       <c r="E46" t="s">
         <v>12</v>
@@ -1833,10 +1833,10 @@
         <v>9</v>
       </c>
       <c r="C47">
-        <v>3133</v>
+        <v>3141</v>
       </c>
       <c r="D47">
-        <v>4322630</v>
+        <v>4333501</v>
       </c>
       <c r="E47" t="s">
         <v>12</v>
@@ -1859,10 +1859,10 @@
         <v>9</v>
       </c>
       <c r="C48">
-        <v>22182</v>
+        <v>22252</v>
       </c>
       <c r="D48">
-        <v>31852914</v>
+        <v>31951838</v>
       </c>
       <c r="E48" t="s">
         <v>12</v>
@@ -1885,10 +1885,10 @@
         <v>9</v>
       </c>
       <c r="C49">
-        <v>2237</v>
+        <v>2243</v>
       </c>
       <c r="D49">
-        <v>2818609</v>
+        <v>2824389</v>
       </c>
       <c r="E49" t="s">
         <v>12</v>
@@ -1911,10 +1911,10 @@
         <v>9</v>
       </c>
       <c r="C50">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D50">
-        <v>1442827</v>
+        <v>1444327</v>
       </c>
       <c r="E50" t="s">
         <v>12</v>
@@ -1937,10 +1937,10 @@
         <v>9</v>
       </c>
       <c r="C51">
-        <v>4216</v>
+        <v>4222</v>
       </c>
       <c r="D51">
-        <v>5526242</v>
+        <v>5533206</v>
       </c>
       <c r="E51" t="s">
         <v>12</v>
@@ -1963,10 +1963,10 @@
         <v>9</v>
       </c>
       <c r="C52">
-        <v>11563</v>
+        <v>11601</v>
       </c>
       <c r="D52">
-        <v>15563868</v>
+        <v>15611780</v>
       </c>
       <c r="E52" t="s">
         <v>12</v>
@@ -1989,10 +1989,10 @@
         <v>9</v>
       </c>
       <c r="C53">
-        <v>4916</v>
+        <v>4925</v>
       </c>
       <c r="D53">
-        <v>6116420</v>
+        <v>6129480</v>
       </c>
       <c r="E53" t="s">
         <v>12</v>
@@ -2041,10 +2041,10 @@
         <v>9</v>
       </c>
       <c r="C55">
-        <v>6203</v>
+        <v>6222</v>
       </c>
       <c r="D55">
-        <v>7606353</v>
+        <v>7629820</v>
       </c>
       <c r="E55" t="s">
         <v>12</v>
@@ -2067,10 +2067,10 @@
         <v>9</v>
       </c>
       <c r="C56">
-        <v>16450</v>
+        <v>16490</v>
       </c>
       <c r="D56">
-        <v>22227511</v>
+        <v>22279328</v>
       </c>
       <c r="E56" t="s">
         <v>12</v>
@@ -2093,10 +2093,10 @@
         <v>9</v>
       </c>
       <c r="C57">
-        <v>6947</v>
+        <v>6987</v>
       </c>
       <c r="D57">
-        <v>8326250</v>
+        <v>8378812</v>
       </c>
       <c r="E57" t="s">
         <v>12</v>
@@ -2119,10 +2119,10 @@
         <v>9</v>
       </c>
       <c r="C58">
-        <v>15960</v>
+        <v>15973</v>
       </c>
       <c r="D58">
-        <v>19795440</v>
+        <v>19810853</v>
       </c>
       <c r="E58" t="s">
         <v>12</v>
@@ -2145,10 +2145,10 @@
         <v>9</v>
       </c>
       <c r="C59">
-        <v>2380</v>
+        <v>2390</v>
       </c>
       <c r="D59">
-        <v>3273718</v>
+        <v>3285450</v>
       </c>
       <c r="E59" t="s">
         <v>13</v>
@@ -2171,10 +2171,10 @@
         <v>9</v>
       </c>
       <c r="C60">
-        <v>4522</v>
+        <v>4537</v>
       </c>
       <c r="D60">
-        <v>5759616</v>
+        <v>5780187</v>
       </c>
       <c r="E60" t="s">
         <v>13</v>
@@ -2223,10 +2223,10 @@
         <v>9</v>
       </c>
       <c r="C62">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D62">
-        <v>273662</v>
+        <v>275162</v>
       </c>
       <c r="E62" t="s">
         <v>13</v>
@@ -2249,10 +2249,10 @@
         <v>9</v>
       </c>
       <c r="C63">
-        <v>13249</v>
+        <v>13296</v>
       </c>
       <c r="D63">
-        <v>18942654</v>
+        <v>19012192</v>
       </c>
       <c r="E63" t="s">
         <v>13</v>
@@ -2275,10 +2275,10 @@
         <v>9</v>
       </c>
       <c r="C64">
-        <v>17550</v>
+        <v>17598</v>
       </c>
       <c r="D64">
-        <v>22924768</v>
+        <v>22986891</v>
       </c>
       <c r="E64" t="s">
         <v>13</v>
@@ -2301,10 +2301,10 @@
         <v>9</v>
       </c>
       <c r="C65">
-        <v>3143</v>
+        <v>3172</v>
       </c>
       <c r="D65">
-        <v>4419595</v>
+        <v>4457356</v>
       </c>
       <c r="E65" t="s">
         <v>13</v>
@@ -2327,10 +2327,10 @@
         <v>9</v>
       </c>
       <c r="C66">
-        <v>13017</v>
+        <v>13046</v>
       </c>
       <c r="D66">
-        <v>18675252</v>
+        <v>18715677</v>
       </c>
       <c r="E66" t="s">
         <v>13</v>
@@ -2353,10 +2353,10 @@
         <v>9</v>
       </c>
       <c r="C67">
-        <v>1501</v>
+        <v>1505</v>
       </c>
       <c r="D67">
-        <v>1949063</v>
+        <v>1955063</v>
       </c>
       <c r="E67" t="s">
         <v>13</v>
@@ -2379,10 +2379,10 @@
         <v>9</v>
       </c>
       <c r="C68">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="D68">
-        <v>966064</v>
+        <v>970296</v>
       </c>
       <c r="E68" t="s">
         <v>13</v>
@@ -2405,10 +2405,10 @@
         <v>9</v>
       </c>
       <c r="C69">
-        <v>2932</v>
+        <v>2937</v>
       </c>
       <c r="D69">
-        <v>3941123</v>
+        <v>3945387</v>
       </c>
       <c r="E69" t="s">
         <v>13</v>
@@ -2431,10 +2431,10 @@
         <v>9</v>
       </c>
       <c r="C70">
-        <v>7260</v>
+        <v>7280</v>
       </c>
       <c r="D70">
-        <v>9836079</v>
+        <v>9865979</v>
       </c>
       <c r="E70" t="s">
         <v>13</v>
@@ -2457,10 +2457,10 @@
         <v>9</v>
       </c>
       <c r="C71">
-        <v>3919</v>
+        <v>3930</v>
       </c>
       <c r="D71">
-        <v>4962612</v>
+        <v>4975902</v>
       </c>
       <c r="E71" t="s">
         <v>13</v>
@@ -2509,10 +2509,10 @@
         <v>9</v>
       </c>
       <c r="C73">
-        <v>4505</v>
+        <v>4516</v>
       </c>
       <c r="D73">
-        <v>5622289</v>
+        <v>5635739</v>
       </c>
       <c r="E73" t="s">
         <v>13</v>
@@ -2535,10 +2535,10 @@
         <v>9</v>
       </c>
       <c r="C74">
-        <v>8404</v>
+        <v>8420</v>
       </c>
       <c r="D74">
-        <v>11143984</v>
+        <v>11163731</v>
       </c>
       <c r="E74" t="s">
         <v>13</v>
@@ -2561,10 +2561,10 @@
         <v>9</v>
       </c>
       <c r="C75">
-        <v>4971</v>
+        <v>4983</v>
       </c>
       <c r="D75">
-        <v>6102854</v>
+        <v>6118441</v>
       </c>
       <c r="E75" t="s">
         <v>13</v>
@@ -2587,10 +2587,10 @@
         <v>9</v>
       </c>
       <c r="C76">
-        <v>12758</v>
+        <v>12769</v>
       </c>
       <c r="D76">
-        <v>15737004</v>
+        <v>15748202</v>
       </c>
       <c r="E76" t="s">
         <v>13</v>
@@ -2613,10 +2613,10 @@
         <v>9</v>
       </c>
       <c r="C77">
-        <v>2172</v>
+        <v>2207</v>
       </c>
       <c r="D77">
-        <v>3006194</v>
+        <v>3051734</v>
       </c>
       <c r="E77" t="s">
         <v>14</v>
@@ -2639,10 +2639,10 @@
         <v>9</v>
       </c>
       <c r="C78">
-        <v>1758</v>
+        <v>1767</v>
       </c>
       <c r="D78">
-        <v>2324304</v>
+        <v>2337639</v>
       </c>
       <c r="E78" t="s">
         <v>14</v>
@@ -2691,10 +2691,10 @@
         <v>9</v>
       </c>
       <c r="C80">
-        <v>4397</v>
+        <v>4411</v>
       </c>
       <c r="D80">
-        <v>6242014</v>
+        <v>6260414</v>
       </c>
       <c r="E80" t="s">
         <v>14</v>
@@ -2717,10 +2717,10 @@
         <v>9</v>
       </c>
       <c r="C81">
-        <v>4624</v>
+        <v>4640</v>
       </c>
       <c r="D81">
-        <v>6442660</v>
+        <v>6464796</v>
       </c>
       <c r="E81" t="s">
         <v>14</v>
@@ -2743,10 +2743,10 @@
         <v>9</v>
       </c>
       <c r="C82">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="D82">
-        <v>1030286</v>
+        <v>1033850</v>
       </c>
       <c r="E82" t="s">
         <v>14</v>
@@ -2769,10 +2769,10 @@
         <v>9</v>
       </c>
       <c r="C83">
-        <v>4770</v>
+        <v>4784</v>
       </c>
       <c r="D83">
-        <v>6846843</v>
+        <v>6866576</v>
       </c>
       <c r="E83" t="s">
         <v>14</v>
@@ -2795,10 +2795,10 @@
         <v>9</v>
       </c>
       <c r="C84">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D84">
-        <v>410777</v>
+        <v>410977</v>
       </c>
       <c r="E84" t="s">
         <v>14</v>
@@ -2821,10 +2821,10 @@
         <v>9</v>
       </c>
       <c r="C85">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D85">
-        <v>160890</v>
+        <v>162390</v>
       </c>
       <c r="E85" t="s">
         <v>14</v>
@@ -2847,10 +2847,10 @@
         <v>9</v>
       </c>
       <c r="C86">
-        <v>1148</v>
+        <v>1153</v>
       </c>
       <c r="D86">
-        <v>1566306</v>
+        <v>1572373</v>
       </c>
       <c r="E86" t="s">
         <v>14</v>
@@ -2873,10 +2873,10 @@
         <v>9</v>
       </c>
       <c r="C87">
-        <v>3004</v>
+        <v>3014</v>
       </c>
       <c r="D87">
-        <v>4192104</v>
+        <v>4205834</v>
       </c>
       <c r="E87" t="s">
         <v>14</v>
@@ -2899,10 +2899,10 @@
         <v>9</v>
       </c>
       <c r="C88">
-        <v>1704</v>
+        <v>1707</v>
       </c>
       <c r="D88">
-        <v>2170673</v>
+        <v>2175173</v>
       </c>
       <c r="E88" t="s">
         <v>14</v>
@@ -2925,10 +2925,10 @@
         <v>9</v>
       </c>
       <c r="C89">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="D89">
-        <v>1069988</v>
+        <v>1072988</v>
       </c>
       <c r="E89" t="s">
         <v>14</v>
@@ -2951,10 +2951,10 @@
         <v>9</v>
       </c>
       <c r="C90">
-        <v>1678</v>
+        <v>1684</v>
       </c>
       <c r="D90">
-        <v>2260723</v>
+        <v>2269338</v>
       </c>
       <c r="E90" t="s">
         <v>14</v>
@@ -2977,10 +2977,10 @@
         <v>9</v>
       </c>
       <c r="C91">
-        <v>959</v>
+        <v>964</v>
       </c>
       <c r="D91">
-        <v>1247237</v>
+        <v>1254737</v>
       </c>
       <c r="E91" t="s">
         <v>14</v>
@@ -3003,10 +3003,10 @@
         <v>9</v>
       </c>
       <c r="C92">
-        <v>2543</v>
+        <v>2551</v>
       </c>
       <c r="D92">
-        <v>3058408</v>
+        <v>3067796</v>
       </c>
       <c r="E92" t="s">
         <v>14</v>
@@ -3029,10 +3029,10 @@
         <v>9</v>
       </c>
       <c r="C93">
-        <v>4573</v>
+        <v>4598</v>
       </c>
       <c r="D93">
-        <v>6362187</v>
+        <v>6396170</v>
       </c>
       <c r="E93" t="s">
         <v>15</v>
@@ -3081,10 +3081,10 @@
         <v>9</v>
       </c>
       <c r="C95">
-        <v>9400</v>
+        <v>9445</v>
       </c>
       <c r="D95">
-        <v>12259791</v>
+        <v>12316789</v>
       </c>
       <c r="E95" t="s">
         <v>15</v>
@@ -3133,10 +3133,10 @@
         <v>9</v>
       </c>
       <c r="C97">
-        <v>937</v>
+        <v>950</v>
       </c>
       <c r="D97">
-        <v>1133289</v>
+        <v>1152289</v>
       </c>
       <c r="E97" t="s">
         <v>15</v>
@@ -3159,10 +3159,10 @@
         <v>9</v>
       </c>
       <c r="C98">
-        <v>27661</v>
+        <v>27754</v>
       </c>
       <c r="D98">
-        <v>39782001</v>
+        <v>39911796</v>
       </c>
       <c r="E98" t="s">
         <v>15</v>
@@ -3185,10 +3185,10 @@
         <v>9</v>
       </c>
       <c r="C99">
-        <v>39400</v>
+        <v>39520</v>
       </c>
       <c r="D99">
-        <v>52439806</v>
+        <v>52586701</v>
       </c>
       <c r="E99" t="s">
         <v>15</v>
@@ -3211,10 +3211,10 @@
         <v>9</v>
       </c>
       <c r="C100">
-        <v>6339</v>
+        <v>6393</v>
       </c>
       <c r="D100">
-        <v>8638787</v>
+        <v>8706769</v>
       </c>
       <c r="E100" t="s">
         <v>15</v>
@@ -3237,10 +3237,10 @@
         <v>9</v>
       </c>
       <c r="C101">
-        <v>26456</v>
+        <v>26577</v>
       </c>
       <c r="D101">
-        <v>38171240</v>
+        <v>38346468</v>
       </c>
       <c r="E101" t="s">
         <v>15</v>
@@ -3263,10 +3263,10 @@
         <v>9</v>
       </c>
       <c r="C102">
-        <v>3054</v>
+        <v>3066</v>
       </c>
       <c r="D102">
-        <v>3926951</v>
+        <v>3944601</v>
       </c>
       <c r="E102" t="s">
         <v>15</v>
@@ -3289,10 +3289,10 @@
         <v>9</v>
       </c>
       <c r="C103">
-        <v>1697</v>
+        <v>1702</v>
       </c>
       <c r="D103">
-        <v>2356775</v>
+        <v>2364095</v>
       </c>
       <c r="E103" t="s">
         <v>15</v>
@@ -3315,10 +3315,10 @@
         <v>9</v>
       </c>
       <c r="C104">
-        <v>4917</v>
+        <v>4949</v>
       </c>
       <c r="D104">
-        <v>6638965</v>
+        <v>6678332</v>
       </c>
       <c r="E104" t="s">
         <v>15</v>
@@ -3341,10 +3341,10 @@
         <v>9</v>
       </c>
       <c r="C105">
-        <v>17007</v>
+        <v>17054</v>
       </c>
       <c r="D105">
-        <v>22874841</v>
+        <v>22942604</v>
       </c>
       <c r="E105" t="s">
         <v>15</v>
@@ -3367,10 +3367,10 @@
         <v>9</v>
       </c>
       <c r="C106">
-        <v>7445</v>
+        <v>7465</v>
       </c>
       <c r="D106">
-        <v>9512637</v>
+        <v>9535106</v>
       </c>
       <c r="E106" t="s">
         <v>15</v>
@@ -3419,10 +3419,10 @@
         <v>9</v>
       </c>
       <c r="C108">
-        <v>9401</v>
+        <v>9432</v>
       </c>
       <c r="D108">
-        <v>11490086</v>
+        <v>11529877</v>
       </c>
       <c r="E108" t="s">
         <v>15</v>
@@ -3445,10 +3445,10 @@
         <v>9</v>
       </c>
       <c r="C109">
-        <v>20085</v>
+        <v>20165</v>
       </c>
       <c r="D109">
-        <v>27415654</v>
+        <v>27529612</v>
       </c>
       <c r="E109" t="s">
         <v>15</v>
@@ -3471,10 +3471,10 @@
         <v>9</v>
       </c>
       <c r="C110">
-        <v>9206</v>
+        <v>9241</v>
       </c>
       <c r="D110">
-        <v>10975381</v>
+        <v>11017855</v>
       </c>
       <c r="E110" t="s">
         <v>15</v>
@@ -3497,10 +3497,10 @@
         <v>9</v>
       </c>
       <c r="C111">
-        <v>28905</v>
+        <v>28963</v>
       </c>
       <c r="D111">
-        <v>34836835</v>
+        <v>34899271</v>
       </c>
       <c r="E111" t="s">
         <v>15</v>
@@ -3543,10 +3543,10 @@
         <v>9</v>
       </c>
       <c r="C113">
-        <v>4025</v>
+        <v>4092</v>
       </c>
       <c r="D113">
-        <v>5616618</v>
+        <v>5707666</v>
       </c>
       <c r="E113" t="s">
         <v>16</v>
@@ -3569,10 +3569,10 @@
         <v>9</v>
       </c>
       <c r="C114">
-        <v>2409</v>
+        <v>2427</v>
       </c>
       <c r="D114">
-        <v>3365416</v>
+        <v>3389244</v>
       </c>
       <c r="E114" t="s">
         <v>16</v>
@@ -3647,10 +3647,10 @@
         <v>9</v>
       </c>
       <c r="C117">
-        <v>4241</v>
+        <v>4267</v>
       </c>
       <c r="D117">
-        <v>6137417</v>
+        <v>6175037</v>
       </c>
       <c r="E117" t="s">
         <v>16</v>
@@ -3673,10 +3673,10 @@
         <v>9</v>
       </c>
       <c r="C118">
-        <v>6486</v>
+        <v>6527</v>
       </c>
       <c r="D118">
-        <v>8993433</v>
+        <v>9051583</v>
       </c>
       <c r="E118" t="s">
         <v>16</v>
@@ -3699,10 +3699,10 @@
         <v>9</v>
       </c>
       <c r="C119">
-        <v>1511</v>
+        <v>1518</v>
       </c>
       <c r="D119">
-        <v>2128687</v>
+        <v>2138737</v>
       </c>
       <c r="E119" t="s">
         <v>16</v>
@@ -3725,10 +3725,10 @@
         <v>9</v>
       </c>
       <c r="C120">
-        <v>4220</v>
+        <v>4236</v>
       </c>
       <c r="D120">
-        <v>6046082</v>
+        <v>6069411</v>
       </c>
       <c r="E120" t="s">
         <v>16</v>
@@ -3751,10 +3751,10 @@
         <v>9</v>
       </c>
       <c r="C121">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D121">
-        <v>810838</v>
+        <v>813588</v>
       </c>
       <c r="E121" t="s">
         <v>16</v>
@@ -3777,10 +3777,10 @@
         <v>9</v>
       </c>
       <c r="C122">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D122">
-        <v>290768</v>
+        <v>292684</v>
       </c>
       <c r="E122" t="s">
         <v>16</v>
@@ -3803,10 +3803,10 @@
         <v>9</v>
       </c>
       <c r="C123">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="D123">
-        <v>1222676</v>
+        <v>1228934</v>
       </c>
       <c r="E123" t="s">
         <v>16</v>
@@ -3829,10 +3829,10 @@
         <v>9</v>
       </c>
       <c r="C124">
-        <v>2386</v>
+        <v>2389</v>
       </c>
       <c r="D124">
-        <v>3354101</v>
+        <v>3358601</v>
       </c>
       <c r="E124" t="s">
         <v>16</v>
@@ -3855,10 +3855,10 @@
         <v>9</v>
       </c>
       <c r="C125">
-        <v>2702</v>
+        <v>2726</v>
       </c>
       <c r="D125">
-        <v>3689092</v>
+        <v>3719806</v>
       </c>
       <c r="E125" t="s">
         <v>16</v>
@@ -3881,10 +3881,10 @@
         <v>9</v>
       </c>
       <c r="C126">
-        <v>1381</v>
+        <v>1388</v>
       </c>
       <c r="D126">
-        <v>1765697</v>
+        <v>1773337</v>
       </c>
       <c r="E126" t="s">
         <v>16</v>
@@ -3907,10 +3907,10 @@
         <v>9</v>
       </c>
       <c r="C127">
-        <v>1966</v>
+        <v>1977</v>
       </c>
       <c r="D127">
-        <v>2778041</v>
+        <v>2793141</v>
       </c>
       <c r="E127" t="s">
         <v>16</v>
@@ -3933,10 +3933,10 @@
         <v>9</v>
       </c>
       <c r="C128">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="D128">
-        <v>1206042</v>
+        <v>1213592</v>
       </c>
       <c r="E128" t="s">
         <v>16</v>
@@ -3959,10 +3959,10 @@
         <v>9</v>
       </c>
       <c r="C129">
-        <v>2414</v>
+        <v>2424</v>
       </c>
       <c r="D129">
-        <v>3151911</v>
+        <v>3163350</v>
       </c>
       <c r="E129" t="s">
         <v>16</v>
@@ -3985,10 +3985,10 @@
         <v>9</v>
       </c>
       <c r="C130">
-        <v>1227</v>
+        <v>1234</v>
       </c>
       <c r="D130">
-        <v>1669758</v>
+        <v>1677676</v>
       </c>
       <c r="E130" t="s">
         <v>17</v>
@@ -4037,10 +4037,10 @@
         <v>9</v>
       </c>
       <c r="C132">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="D132">
-        <v>794792</v>
+        <v>806792</v>
       </c>
       <c r="E132" t="s">
         <v>17</v>
@@ -4089,10 +4089,10 @@
         <v>9</v>
       </c>
       <c r="C134">
-        <v>1337</v>
+        <v>1345</v>
       </c>
       <c r="D134">
-        <v>1957846</v>
+        <v>1969846</v>
       </c>
       <c r="E134" t="s">
         <v>17</v>
@@ -4115,10 +4115,10 @@
         <v>9</v>
       </c>
       <c r="C135">
-        <v>1384</v>
+        <v>1403</v>
       </c>
       <c r="D135">
-        <v>1961529</v>
+        <v>1990029</v>
       </c>
       <c r="E135" t="s">
         <v>17</v>
@@ -4141,10 +4141,10 @@
         <v>9</v>
       </c>
       <c r="C136">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D136">
-        <v>620954</v>
+        <v>626929</v>
       </c>
       <c r="E136" t="s">
         <v>17</v>
@@ -4167,10 +4167,10 @@
         <v>9</v>
       </c>
       <c r="C137">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D137">
-        <v>1326982</v>
+        <v>1328482</v>
       </c>
       <c r="E137" t="s">
         <v>17</v>
@@ -4193,10 +4193,10 @@
         <v>9</v>
       </c>
       <c r="C138">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D138">
-        <v>169481</v>
+        <v>170981</v>
       </c>
       <c r="E138" t="s">
         <v>17</v>
@@ -4219,10 +4219,10 @@
         <v>9</v>
       </c>
       <c r="C139">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D139">
-        <v>108242</v>
+        <v>112742</v>
       </c>
       <c r="E139" t="s">
         <v>17</v>
@@ -4245,10 +4245,10 @@
         <v>9</v>
       </c>
       <c r="C140">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D140">
-        <v>148578</v>
+        <v>150078</v>
       </c>
       <c r="E140" t="s">
         <v>17</v>
@@ -4271,10 +4271,10 @@
         <v>9</v>
       </c>
       <c r="C141">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="D141">
-        <v>860439</v>
+        <v>865971</v>
       </c>
       <c r="E141" t="s">
         <v>17</v>
@@ -4297,10 +4297,10 @@
         <v>9</v>
       </c>
       <c r="C142">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D142">
-        <v>852470</v>
+        <v>856970</v>
       </c>
       <c r="E142" t="s">
         <v>17</v>
@@ -4349,10 +4349,10 @@
         <v>9</v>
       </c>
       <c r="C144">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="D144">
-        <v>535160</v>
+        <v>542660</v>
       </c>
       <c r="E144" t="s">
         <v>17</v>
@@ -4375,10 +4375,10 @@
         <v>9</v>
       </c>
       <c r="C145">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D145">
-        <v>297755</v>
+        <v>304632</v>
       </c>
       <c r="E145" t="s">
         <v>17</v>
@@ -4401,10 +4401,10 @@
         <v>9</v>
       </c>
       <c r="C146">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="D146">
-        <v>669720</v>
+        <v>679875</v>
       </c>
       <c r="E146" t="s">
         <v>17</v>
@@ -4427,10 +4427,10 @@
         <v>9</v>
       </c>
       <c r="C147">
-        <v>2505</v>
+        <v>2517</v>
       </c>
       <c r="D147">
-        <v>3415891</v>
+        <v>3433891</v>
       </c>
       <c r="E147" t="s">
         <v>18</v>
@@ -4479,10 +4479,10 @@
         <v>9</v>
       </c>
       <c r="C149">
-        <v>7201</v>
+        <v>7216</v>
       </c>
       <c r="D149">
-        <v>8961090</v>
+        <v>8981947</v>
       </c>
       <c r="E149" t="s">
         <v>18</v>
@@ -4557,10 +4557,10 @@
         <v>9</v>
       </c>
       <c r="C152">
-        <v>23107</v>
+        <v>23161</v>
       </c>
       <c r="D152">
-        <v>32826062</v>
+        <v>32905109</v>
       </c>
       <c r="E152" t="s">
         <v>18</v>
@@ -4583,10 +4583,10 @@
         <v>9</v>
       </c>
       <c r="C153">
-        <v>38201</v>
+        <v>38288</v>
       </c>
       <c r="D153">
-        <v>48819746</v>
+        <v>48933578</v>
       </c>
       <c r="E153" t="s">
         <v>18</v>
@@ -4609,10 +4609,10 @@
         <v>9</v>
       </c>
       <c r="C154">
-        <v>9698</v>
+        <v>9720</v>
       </c>
       <c r="D154">
-        <v>13332118</v>
+        <v>13363919</v>
       </c>
       <c r="E154" t="s">
         <v>18</v>
@@ -4635,10 +4635,10 @@
         <v>9</v>
       </c>
       <c r="C155">
-        <v>25731</v>
+        <v>25797</v>
       </c>
       <c r="D155">
-        <v>37163256</v>
+        <v>37259324</v>
       </c>
       <c r="E155" t="s">
         <v>18</v>
@@ -4661,10 +4661,10 @@
         <v>9</v>
       </c>
       <c r="C156">
-        <v>3049</v>
+        <v>3066</v>
       </c>
       <c r="D156">
-        <v>3945689</v>
+        <v>3966520</v>
       </c>
       <c r="E156" t="s">
         <v>18</v>
@@ -4687,10 +4687,10 @@
         <v>9</v>
       </c>
       <c r="C157">
-        <v>1738</v>
+        <v>1746</v>
       </c>
       <c r="D157">
-        <v>2432927</v>
+        <v>2443566</v>
       </c>
       <c r="E157" t="s">
         <v>18</v>
@@ -4713,10 +4713,10 @@
         <v>9</v>
       </c>
       <c r="C158">
-        <v>4610</v>
+        <v>4632</v>
       </c>
       <c r="D158">
-        <v>6195044</v>
+        <v>6221007</v>
       </c>
       <c r="E158" t="s">
         <v>18</v>
@@ -4739,10 +4739,10 @@
         <v>9</v>
       </c>
       <c r="C159">
-        <v>16484</v>
+        <v>16522</v>
       </c>
       <c r="D159">
-        <v>22430001</v>
+        <v>22482569</v>
       </c>
       <c r="E159" t="s">
         <v>18</v>
@@ -4765,10 +4765,10 @@
         <v>9</v>
       </c>
       <c r="C160">
-        <v>7372</v>
+        <v>7384</v>
       </c>
       <c r="D160">
-        <v>9230130</v>
+        <v>9244387</v>
       </c>
       <c r="E160" t="s">
         <v>18</v>
@@ -4817,10 +4817,10 @@
         <v>9</v>
       </c>
       <c r="C162">
-        <v>8424</v>
+        <v>8447</v>
       </c>
       <c r="D162">
-        <v>10466939</v>
+        <v>10494778</v>
       </c>
       <c r="E162" t="s">
         <v>18</v>
@@ -4843,10 +4843,10 @@
         <v>9</v>
       </c>
       <c r="C163">
-        <v>20633</v>
+        <v>20690</v>
       </c>
       <c r="D163">
-        <v>28061812</v>
+        <v>28133729</v>
       </c>
       <c r="E163" t="s">
         <v>18</v>
@@ -4869,10 +4869,10 @@
         <v>9</v>
       </c>
       <c r="C164">
-        <v>9167</v>
+        <v>9195</v>
       </c>
       <c r="D164">
-        <v>11087796</v>
+        <v>11124340</v>
       </c>
       <c r="E164" t="s">
         <v>18</v>
@@ -4895,10 +4895,10 @@
         <v>9</v>
       </c>
       <c r="C165">
-        <v>27640</v>
+        <v>27681</v>
       </c>
       <c r="D165">
-        <v>32523156</v>
+        <v>32568539</v>
       </c>
       <c r="E165" t="s">
         <v>18</v>
@@ -4921,10 +4921,10 @@
         <v>9</v>
       </c>
       <c r="C166">
-        <v>3637</v>
+        <v>3669</v>
       </c>
       <c r="D166">
-        <v>4818012</v>
+        <v>4859462</v>
       </c>
       <c r="E166" t="s">
         <v>19</v>
@@ -4973,10 +4973,10 @@
         <v>9</v>
       </c>
       <c r="C168">
-        <v>3507</v>
+        <v>3517</v>
       </c>
       <c r="D168">
-        <v>4724865</v>
+        <v>4735208</v>
       </c>
       <c r="E168" t="s">
         <v>19</v>
@@ -5051,10 +5051,10 @@
         <v>9</v>
       </c>
       <c r="C171">
-        <v>6642</v>
+        <v>6660</v>
       </c>
       <c r="D171">
-        <v>9667275</v>
+        <v>9693354</v>
       </c>
       <c r="E171" t="s">
         <v>19</v>
@@ -5077,10 +5077,10 @@
         <v>9</v>
       </c>
       <c r="C172">
-        <v>11374</v>
+        <v>11398</v>
       </c>
       <c r="D172">
-        <v>15579043</v>
+        <v>15612785</v>
       </c>
       <c r="E172" t="s">
         <v>19</v>
@@ -5103,10 +5103,10 @@
         <v>9</v>
       </c>
       <c r="C173">
-        <v>1559</v>
+        <v>1563</v>
       </c>
       <c r="D173">
-        <v>2187583</v>
+        <v>2192818</v>
       </c>
       <c r="E173" t="s">
         <v>19</v>
@@ -5129,10 +5129,10 @@
         <v>9</v>
       </c>
       <c r="C174">
-        <v>5804</v>
+        <v>5823</v>
       </c>
       <c r="D174">
-        <v>8241049</v>
+        <v>8267978</v>
       </c>
       <c r="E174" t="s">
         <v>19</v>
@@ -5181,10 +5181,10 @@
         <v>9</v>
       </c>
       <c r="C176">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D176">
-        <v>500379</v>
+        <v>501879</v>
       </c>
       <c r="E176" t="s">
         <v>19</v>
@@ -5207,10 +5207,10 @@
         <v>9</v>
       </c>
       <c r="C177">
-        <v>1298</v>
+        <v>1303</v>
       </c>
       <c r="D177">
-        <v>1818008</v>
+        <v>1825508</v>
       </c>
       <c r="E177" t="s">
         <v>19</v>
@@ -5233,10 +5233,10 @@
         <v>9</v>
       </c>
       <c r="C178">
-        <v>3636</v>
+        <v>3641</v>
       </c>
       <c r="D178">
-        <v>5113714</v>
+        <v>5120689</v>
       </c>
       <c r="E178" t="s">
         <v>19</v>
@@ -5259,10 +5259,10 @@
         <v>9</v>
       </c>
       <c r="C179">
-        <v>2075</v>
+        <v>2082</v>
       </c>
       <c r="D179">
-        <v>2869082</v>
+        <v>2879582</v>
       </c>
       <c r="E179" t="s">
         <v>19</v>
@@ -5285,10 +5285,10 @@
         <v>9</v>
       </c>
       <c r="C180">
-        <v>2941</v>
+        <v>2954</v>
       </c>
       <c r="D180">
-        <v>3846289</v>
+        <v>3858497</v>
       </c>
       <c r="E180" t="s">
         <v>19</v>
@@ -5311,10 +5311,10 @@
         <v>9</v>
       </c>
       <c r="C181">
-        <v>4790</v>
+        <v>4804</v>
       </c>
       <c r="D181">
-        <v>6778214</v>
+        <v>6797927</v>
       </c>
       <c r="E181" t="s">
         <v>19</v>
@@ -5337,10 +5337,10 @@
         <v>9</v>
       </c>
       <c r="C182">
-        <v>1866</v>
+        <v>1874</v>
       </c>
       <c r="D182">
-        <v>2457580</v>
+        <v>2468230</v>
       </c>
       <c r="E182" t="s">
         <v>19</v>
@@ -5363,10 +5363,10 @@
         <v>9</v>
       </c>
       <c r="C183">
-        <v>4508</v>
+        <v>4514</v>
       </c>
       <c r="D183">
-        <v>5758634</v>
+        <v>5765254</v>
       </c>
       <c r="E183" t="s">
         <v>19</v>
@@ -5389,10 +5389,10 @@
         <v>9</v>
       </c>
       <c r="C184">
-        <v>1324</v>
+        <v>1335</v>
       </c>
       <c r="D184">
-        <v>1673983</v>
+        <v>1686027</v>
       </c>
       <c r="E184" t="s">
         <v>20</v>
@@ -5415,10 +5415,10 @@
         <v>9</v>
       </c>
       <c r="C185">
-        <v>1641</v>
+        <v>1646</v>
       </c>
       <c r="D185">
-        <v>2219584</v>
+        <v>2226072</v>
       </c>
       <c r="E185" t="s">
         <v>20</v>
@@ -5493,10 +5493,10 @@
         <v>9</v>
       </c>
       <c r="C188">
-        <v>2606</v>
+        <v>2624</v>
       </c>
       <c r="D188">
-        <v>3769017</v>
+        <v>3795198</v>
       </c>
       <c r="E188" t="s">
         <v>20</v>
@@ -5519,10 +5519,10 @@
         <v>9</v>
       </c>
       <c r="C189">
-        <v>4362</v>
+        <v>4383</v>
       </c>
       <c r="D189">
-        <v>6000573</v>
+        <v>6031055</v>
       </c>
       <c r="E189" t="s">
         <v>20</v>
@@ -5545,10 +5545,10 @@
         <v>9</v>
       </c>
       <c r="C190">
-        <v>1443</v>
+        <v>1451</v>
       </c>
       <c r="D190">
-        <v>2041408</v>
+        <v>2048820</v>
       </c>
       <c r="E190" t="s">
         <v>20</v>
@@ -5571,10 +5571,10 @@
         <v>9</v>
       </c>
       <c r="C191">
-        <v>2530</v>
+        <v>2544</v>
       </c>
       <c r="D191">
-        <v>3632920</v>
+        <v>3653870</v>
       </c>
       <c r="E191" t="s">
         <v>20</v>
@@ -5649,10 +5649,10 @@
         <v>9</v>
       </c>
       <c r="C194">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="D194">
-        <v>758606</v>
+        <v>766066</v>
       </c>
       <c r="E194" t="s">
         <v>20</v>
@@ -5675,10 +5675,10 @@
         <v>9</v>
       </c>
       <c r="C195">
-        <v>2036</v>
+        <v>2047</v>
       </c>
       <c r="D195">
-        <v>2832741</v>
+        <v>2847741</v>
       </c>
       <c r="E195" t="s">
         <v>20</v>
@@ -5701,10 +5701,10 @@
         <v>9</v>
       </c>
       <c r="C196">
-        <v>1899</v>
+        <v>1903</v>
       </c>
       <c r="D196">
-        <v>2593541</v>
+        <v>2599241</v>
       </c>
       <c r="E196" t="s">
         <v>20</v>
@@ -5727,10 +5727,10 @@
         <v>9</v>
       </c>
       <c r="C197">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="D197">
-        <v>1376300</v>
+        <v>1384100</v>
       </c>
       <c r="E197" t="s">
         <v>20</v>
@@ -5753,10 +5753,10 @@
         <v>9</v>
       </c>
       <c r="C198">
-        <v>1706</v>
+        <v>1718</v>
       </c>
       <c r="D198">
-        <v>2393322</v>
+        <v>2410153</v>
       </c>
       <c r="E198" t="s">
         <v>20</v>
@@ -5779,10 +5779,10 @@
         <v>9</v>
       </c>
       <c r="C199">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="D199">
-        <v>1040217</v>
+        <v>1044216</v>
       </c>
       <c r="E199" t="s">
         <v>20</v>
@@ -5805,10 +5805,10 @@
         <v>9</v>
       </c>
       <c r="C200">
-        <v>2252</v>
+        <v>2262</v>
       </c>
       <c r="D200">
-        <v>2953523</v>
+        <v>2968523</v>
       </c>
       <c r="E200" t="s">
         <v>20</v>
@@ -5851,10 +5851,10 @@
         <v>9</v>
       </c>
       <c r="C202">
-        <v>1175</v>
+        <v>1205</v>
       </c>
       <c r="D202">
-        <v>1729631</v>
+        <v>1773720</v>
       </c>
       <c r="E202" t="s">
         <v>21</v>
@@ -5877,10 +5877,10 @@
         <v>9</v>
       </c>
       <c r="C203">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D203">
-        <v>516653</v>
+        <v>524153</v>
       </c>
       <c r="E203" t="s">
         <v>21</v>
@@ -5929,10 +5929,10 @@
         <v>9</v>
       </c>
       <c r="C205">
-        <v>1122</v>
+        <v>1132</v>
       </c>
       <c r="D205">
-        <v>1663697</v>
+        <v>1678697</v>
       </c>
       <c r="E205" t="s">
         <v>21</v>
@@ -5955,10 +5955,10 @@
         <v>9</v>
       </c>
       <c r="C206">
-        <v>4739</v>
+        <v>4818</v>
       </c>
       <c r="D206">
-        <v>6752449</v>
+        <v>6867197</v>
       </c>
       <c r="E206" t="s">
         <v>21</v>
@@ -5981,10 +5981,10 @@
         <v>9</v>
       </c>
       <c r="C207">
-        <v>1128</v>
+        <v>1133</v>
       </c>
       <c r="D207">
-        <v>1666794</v>
+        <v>1674294</v>
       </c>
       <c r="E207" t="s">
         <v>21</v>
@@ -6007,10 +6007,10 @@
         <v>9</v>
       </c>
       <c r="C208">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D208">
-        <v>889183</v>
+        <v>890683</v>
       </c>
       <c r="E208" t="s">
         <v>21</v>
@@ -6085,10 +6085,10 @@
         <v>9</v>
       </c>
       <c r="C211">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D211">
-        <v>21789</v>
+        <v>23289</v>
       </c>
       <c r="E211" t="s">
         <v>21</v>
@@ -6241,10 +6241,10 @@
         <v>9</v>
       </c>
       <c r="C217">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D217">
-        <v>346715</v>
+        <v>350723</v>
       </c>
       <c r="E217" t="s">
         <v>21</v>
@@ -6267,10 +6267,10 @@
         <v>9</v>
       </c>
       <c r="C218">
-        <v>2819</v>
+        <v>2828</v>
       </c>
       <c r="D218">
-        <v>3841679</v>
+        <v>3853555</v>
       </c>
       <c r="E218" t="s">
         <v>22</v>
@@ -6319,10 +6319,10 @@
         <v>9</v>
       </c>
       <c r="C220">
-        <v>5026</v>
+        <v>5042</v>
       </c>
       <c r="D220">
-        <v>6398237</v>
+        <v>6420468</v>
       </c>
       <c r="E220" t="s">
         <v>22</v>
@@ -6371,10 +6371,10 @@
         <v>9</v>
       </c>
       <c r="C222">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D222">
-        <v>336105</v>
+        <v>339291</v>
       </c>
       <c r="E222" t="s">
         <v>22</v>
@@ -6397,10 +6397,10 @@
         <v>9</v>
       </c>
       <c r="C223">
-        <v>14300</v>
+        <v>14350</v>
       </c>
       <c r="D223">
-        <v>20468823</v>
+        <v>20542074</v>
       </c>
       <c r="E223" t="s">
         <v>22</v>
@@ -6423,10 +6423,10 @@
         <v>9</v>
       </c>
       <c r="C224">
-        <v>24198</v>
+        <v>24273</v>
       </c>
       <c r="D224">
-        <v>31736045</v>
+        <v>31835590</v>
       </c>
       <c r="E224" t="s">
         <v>22</v>
@@ -6449,10 +6449,10 @@
         <v>9</v>
       </c>
       <c r="C225">
-        <v>3434</v>
+        <v>3448</v>
       </c>
       <c r="D225">
-        <v>4724943</v>
+        <v>4741432</v>
       </c>
       <c r="E225" t="s">
         <v>22</v>
@@ -6475,10 +6475,10 @@
         <v>9</v>
       </c>
       <c r="C226">
-        <v>17711</v>
+        <v>17771</v>
       </c>
       <c r="D226">
-        <v>25462624</v>
+        <v>25548208</v>
       </c>
       <c r="E226" t="s">
         <v>22</v>
@@ -6501,10 +6501,10 @@
         <v>9</v>
       </c>
       <c r="C227">
-        <v>1634</v>
+        <v>1637</v>
       </c>
       <c r="D227">
-        <v>2062568</v>
+        <v>2066322</v>
       </c>
       <c r="E227" t="s">
         <v>22</v>
@@ -6527,10 +6527,10 @@
         <v>9</v>
       </c>
       <c r="C228">
-        <v>1072</v>
+        <v>1076</v>
       </c>
       <c r="D228">
-        <v>1488348</v>
+        <v>1492921</v>
       </c>
       <c r="E228" t="s">
         <v>22</v>
@@ -6553,10 +6553,10 @@
         <v>9</v>
       </c>
       <c r="C229">
-        <v>3338</v>
+        <v>3347</v>
       </c>
       <c r="D229">
-        <v>4432421</v>
+        <v>4444121</v>
       </c>
       <c r="E229" t="s">
         <v>22</v>
@@ -6579,10 +6579,10 @@
         <v>9</v>
       </c>
       <c r="C230">
-        <v>9696</v>
+        <v>9727</v>
       </c>
       <c r="D230">
-        <v>13140113</v>
+        <v>13182045</v>
       </c>
       <c r="E230" t="s">
         <v>22</v>
@@ -6605,10 +6605,10 @@
         <v>9</v>
       </c>
       <c r="C231">
-        <v>4349</v>
+        <v>4360</v>
       </c>
       <c r="D231">
-        <v>5461560</v>
+        <v>5475516</v>
       </c>
       <c r="E231" t="s">
         <v>22</v>
@@ -6657,10 +6657,10 @@
         <v>9</v>
       </c>
       <c r="C233">
-        <v>5351</v>
+        <v>5358</v>
       </c>
       <c r="D233">
-        <v>6480126</v>
+        <v>6488993</v>
       </c>
       <c r="E233" t="s">
         <v>22</v>
@@ -6683,10 +6683,10 @@
         <v>9</v>
       </c>
       <c r="C234">
-        <v>10003</v>
+        <v>10026</v>
       </c>
       <c r="D234">
-        <v>13273162</v>
+        <v>13299337</v>
       </c>
       <c r="E234" t="s">
         <v>22</v>
@@ -6709,10 +6709,10 @@
         <v>9</v>
       </c>
       <c r="C235">
-        <v>6028</v>
+        <v>6049</v>
       </c>
       <c r="D235">
-        <v>7369339</v>
+        <v>7394320</v>
       </c>
       <c r="E235" t="s">
         <v>22</v>
@@ -6735,10 +6735,10 @@
         <v>9</v>
       </c>
       <c r="C236">
-        <v>16851</v>
+        <v>16886</v>
       </c>
       <c r="D236">
-        <v>20561497</v>
+        <v>20598742</v>
       </c>
       <c r="E236" t="s">
         <v>22</v>
@@ -6761,10 +6761,10 @@
         <v>9</v>
       </c>
       <c r="C237">
-        <v>10457</v>
+        <v>10499</v>
       </c>
       <c r="D237">
-        <v>14471237</v>
+        <v>14531766</v>
       </c>
       <c r="E237" t="s">
         <v>23</v>
@@ -6813,10 +6813,10 @@
         <v>9</v>
       </c>
       <c r="C239">
-        <v>15454</v>
+        <v>15498</v>
       </c>
       <c r="D239">
-        <v>19109141</v>
+        <v>19161697</v>
       </c>
       <c r="E239" t="s">
         <v>23</v>
@@ -6865,10 +6865,10 @@
         <v>9</v>
       </c>
       <c r="C241">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D241">
-        <v>894989</v>
+        <v>895989</v>
       </c>
       <c r="E241" t="s">
         <v>23</v>
@@ -6891,10 +6891,10 @@
         <v>9</v>
       </c>
       <c r="C242">
-        <v>41175</v>
+        <v>41273</v>
       </c>
       <c r="D242">
-        <v>58498047</v>
+        <v>58634968</v>
       </c>
       <c r="E242" t="s">
         <v>23</v>
@@ -6917,10 +6917,10 @@
         <v>9</v>
       </c>
       <c r="C243">
-        <v>58093</v>
+        <v>58241</v>
       </c>
       <c r="D243">
-        <v>76535573</v>
+        <v>76720390</v>
       </c>
       <c r="E243" t="s">
         <v>23</v>
@@ -6943,10 +6943,10 @@
         <v>9</v>
       </c>
       <c r="C244">
-        <v>8822</v>
+        <v>8861</v>
       </c>
       <c r="D244">
-        <v>12067033</v>
+        <v>12120875</v>
       </c>
       <c r="E244" t="s">
         <v>23</v>
@@ -6969,10 +6969,10 @@
         <v>9</v>
       </c>
       <c r="C245">
-        <v>39103</v>
+        <v>39219</v>
       </c>
       <c r="D245">
-        <v>55398088</v>
+        <v>55560181</v>
       </c>
       <c r="E245" t="s">
         <v>23</v>
@@ -6995,10 +6995,10 @@
         <v>9</v>
       </c>
       <c r="C246">
-        <v>4811</v>
+        <v>4819</v>
       </c>
       <c r="D246">
-        <v>6221920</v>
+        <v>6233752</v>
       </c>
       <c r="E246" t="s">
         <v>23</v>
@@ -7021,10 +7021,10 @@
         <v>9</v>
       </c>
       <c r="C247">
-        <v>2618</v>
+        <v>2622</v>
       </c>
       <c r="D247">
-        <v>3669452</v>
+        <v>3675311</v>
       </c>
       <c r="E247" t="s">
         <v>23</v>
@@ -7047,10 +7047,10 @@
         <v>9</v>
       </c>
       <c r="C248">
-        <v>9786</v>
+        <v>9806</v>
       </c>
       <c r="D248">
-        <v>12971101</v>
+        <v>12994480</v>
       </c>
       <c r="E248" t="s">
         <v>23</v>
@@ -7073,10 +7073,10 @@
         <v>9</v>
       </c>
       <c r="C249">
-        <v>28360</v>
+        <v>28444</v>
       </c>
       <c r="D249">
-        <v>38138540</v>
+        <v>38244103</v>
       </c>
       <c r="E249" t="s">
         <v>23</v>
@@ -7099,10 +7099,10 @@
         <v>9</v>
       </c>
       <c r="C250">
-        <v>14074</v>
+        <v>14108</v>
       </c>
       <c r="D250">
-        <v>17589504</v>
+        <v>17628304</v>
       </c>
       <c r="E250" t="s">
         <v>23</v>
@@ -7151,10 +7151,10 @@
         <v>9</v>
       </c>
       <c r="C252">
-        <v>15544</v>
+        <v>15566</v>
       </c>
       <c r="D252">
-        <v>18252432</v>
+        <v>18276874</v>
       </c>
       <c r="E252" t="s">
         <v>23</v>
@@ -7177,10 +7177,10 @@
         <v>9</v>
       </c>
       <c r="C253">
-        <v>32401</v>
+        <v>32471</v>
       </c>
       <c r="D253">
-        <v>42948352</v>
+        <v>43043934</v>
       </c>
       <c r="E253" t="s">
         <v>23</v>
@@ -7203,10 +7203,10 @@
         <v>9</v>
       </c>
       <c r="C254">
-        <v>15060</v>
+        <v>15113</v>
       </c>
       <c r="D254">
-        <v>18145084</v>
+        <v>18210861</v>
       </c>
       <c r="E254" t="s">
         <v>23</v>
@@ -7229,10 +7229,10 @@
         <v>9</v>
       </c>
       <c r="C255">
-        <v>38557</v>
+        <v>38603</v>
       </c>
       <c r="D255">
-        <v>46310994</v>
+        <v>46358808</v>
       </c>
       <c r="E255" t="s">
         <v>23</v>
@@ -7255,10 +7255,10 @@
         <v>9</v>
       </c>
       <c r="C256">
-        <v>10772</v>
+        <v>10821</v>
       </c>
       <c r="D256">
-        <v>14513981</v>
+        <v>14582506</v>
       </c>
       <c r="E256" t="s">
         <v>24</v>
@@ -7307,10 +7307,10 @@
         <v>9</v>
       </c>
       <c r="C258">
-        <v>16651</v>
+        <v>16717</v>
       </c>
       <c r="D258">
-        <v>20709215</v>
+        <v>20784673</v>
       </c>
       <c r="E258" t="s">
         <v>24</v>
@@ -7359,10 +7359,10 @@
         <v>9</v>
       </c>
       <c r="C260">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="D260">
-        <v>798365</v>
+        <v>802065</v>
       </c>
       <c r="E260" t="s">
         <v>24</v>
@@ -7385,10 +7385,10 @@
         <v>9</v>
       </c>
       <c r="C261">
-        <v>52292</v>
+        <v>52497</v>
       </c>
       <c r="D261">
-        <v>74148537</v>
+        <v>74435166</v>
       </c>
       <c r="E261" t="s">
         <v>24</v>
@@ -7411,10 +7411,10 @@
         <v>9</v>
       </c>
       <c r="C262">
-        <v>64778</v>
+        <v>64972</v>
       </c>
       <c r="D262">
-        <v>85186786</v>
+        <v>85438448</v>
       </c>
       <c r="E262" t="s">
         <v>24</v>
@@ -7437,10 +7437,10 @@
         <v>9</v>
       </c>
       <c r="C263">
-        <v>10046</v>
+        <v>10102</v>
       </c>
       <c r="D263">
-        <v>13516751</v>
+        <v>13590393</v>
       </c>
       <c r="E263" t="s">
         <v>24</v>
@@ -7463,10 +7463,10 @@
         <v>9</v>
       </c>
       <c r="C264">
-        <v>46185</v>
+        <v>46351</v>
       </c>
       <c r="D264">
-        <v>65569364</v>
+        <v>65808995</v>
       </c>
       <c r="E264" t="s">
         <v>24</v>
@@ -7489,10 +7489,10 @@
         <v>9</v>
       </c>
       <c r="C265">
-        <v>5755</v>
+        <v>5777</v>
       </c>
       <c r="D265">
-        <v>7350032</v>
+        <v>7376250</v>
       </c>
       <c r="E265" t="s">
         <v>24</v>
@@ -7515,10 +7515,10 @@
         <v>9</v>
       </c>
       <c r="C266">
-        <v>2709</v>
+        <v>2715</v>
       </c>
       <c r="D266">
-        <v>3748714</v>
+        <v>3756340</v>
       </c>
       <c r="E266" t="s">
         <v>24</v>
@@ -7541,10 +7541,10 @@
         <v>9</v>
       </c>
       <c r="C267">
-        <v>11120</v>
+        <v>11166</v>
       </c>
       <c r="D267">
-        <v>14875810</v>
+        <v>14933429</v>
       </c>
       <c r="E267" t="s">
         <v>24</v>
@@ -7567,10 +7567,10 @@
         <v>9</v>
       </c>
       <c r="C268">
-        <v>32132</v>
+        <v>32233</v>
       </c>
       <c r="D268">
-        <v>43605122</v>
+        <v>43740750</v>
       </c>
       <c r="E268" t="s">
         <v>24</v>
@@ -7593,10 +7593,10 @@
         <v>9</v>
       </c>
       <c r="C269">
-        <v>15396</v>
+        <v>15445</v>
       </c>
       <c r="D269">
-        <v>19331551</v>
+        <v>19390367</v>
       </c>
       <c r="E269" t="s">
         <v>24</v>
@@ -7645,10 +7645,10 @@
         <v>9</v>
       </c>
       <c r="C271">
-        <v>18898</v>
+        <v>18966</v>
       </c>
       <c r="D271">
-        <v>22262788</v>
+        <v>22337032</v>
       </c>
       <c r="E271" t="s">
         <v>24</v>
@@ -7671,10 +7671,10 @@
         <v>9</v>
       </c>
       <c r="C272">
-        <v>35001</v>
+        <v>35131</v>
       </c>
       <c r="D272">
-        <v>46536085</v>
+        <v>46699687</v>
       </c>
       <c r="E272" t="s">
         <v>24</v>
@@ -7697,10 +7697,10 @@
         <v>9</v>
       </c>
       <c r="C273">
-        <v>17199</v>
+        <v>17269</v>
       </c>
       <c r="D273">
-        <v>20681340</v>
+        <v>20761558</v>
       </c>
       <c r="E273" t="s">
         <v>24</v>
@@ -7723,10 +7723,10 @@
         <v>9</v>
       </c>
       <c r="C274">
-        <v>39304</v>
+        <v>39378</v>
       </c>
       <c r="D274">
-        <v>45872170</v>
+        <v>45958259</v>
       </c>
       <c r="E274" t="s">
         <v>24</v>
@@ -7749,10 +7749,10 @@
         <v>9</v>
       </c>
       <c r="C275">
-        <v>3522</v>
+        <v>3535</v>
       </c>
       <c r="D275">
-        <v>4924043</v>
+        <v>4942047</v>
       </c>
       <c r="E275" t="s">
         <v>25</v>
@@ -7801,10 +7801,10 @@
         <v>9</v>
       </c>
       <c r="C277">
-        <v>6917</v>
+        <v>6932</v>
       </c>
       <c r="D277">
-        <v>8606719</v>
+        <v>8626593</v>
       </c>
       <c r="E277" t="s">
         <v>25</v>
@@ -7853,10 +7853,10 @@
         <v>9</v>
       </c>
       <c r="C279">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D279">
-        <v>567176</v>
+        <v>568676</v>
       </c>
       <c r="E279" t="s">
         <v>25</v>
@@ -7879,10 +7879,10 @@
         <v>9</v>
       </c>
       <c r="C280">
-        <v>16788</v>
+        <v>16841</v>
       </c>
       <c r="D280">
-        <v>24090332</v>
+        <v>24167554</v>
       </c>
       <c r="E280" t="s">
         <v>25</v>
@@ -7905,10 +7905,10 @@
         <v>9</v>
       </c>
       <c r="C281">
-        <v>25781</v>
+        <v>25845</v>
       </c>
       <c r="D281">
-        <v>33870133</v>
+        <v>33955235</v>
       </c>
       <c r="E281" t="s">
         <v>25</v>
@@ -7931,10 +7931,10 @@
         <v>9</v>
       </c>
       <c r="C282">
-        <v>4355</v>
+        <v>4384</v>
       </c>
       <c r="D282">
-        <v>6097400</v>
+        <v>6138696</v>
       </c>
       <c r="E282" t="s">
         <v>25</v>
@@ -7957,10 +7957,10 @@
         <v>9</v>
       </c>
       <c r="C283">
-        <v>19003</v>
+        <v>19061</v>
       </c>
       <c r="D283">
-        <v>27329874</v>
+        <v>27412901</v>
       </c>
       <c r="E283" t="s">
         <v>25</v>
@@ -7983,10 +7983,10 @@
         <v>9</v>
       </c>
       <c r="C284">
-        <v>2649</v>
+        <v>2654</v>
       </c>
       <c r="D284">
-        <v>3394563</v>
+        <v>3401945</v>
       </c>
       <c r="E284" t="s">
         <v>25</v>
@@ -8009,10 +8009,10 @@
         <v>9</v>
       </c>
       <c r="C285">
-        <v>1600</v>
+        <v>1608</v>
       </c>
       <c r="D285">
-        <v>2258824</v>
+        <v>2270824</v>
       </c>
       <c r="E285" t="s">
         <v>25</v>
@@ -8035,10 +8035,10 @@
         <v>9</v>
       </c>
       <c r="C286">
-        <v>4972</v>
+        <v>4995</v>
       </c>
       <c r="D286">
-        <v>6666803</v>
+        <v>6698369</v>
       </c>
       <c r="E286" t="s">
         <v>25</v>
@@ -8061,10 +8061,10 @@
         <v>9</v>
       </c>
       <c r="C287">
-        <v>14877</v>
+        <v>14917</v>
       </c>
       <c r="D287">
-        <v>20140536</v>
+        <v>20194158</v>
       </c>
       <c r="E287" t="s">
         <v>25</v>
@@ -8087,10 +8087,10 @@
         <v>9</v>
       </c>
       <c r="C288">
-        <v>5486</v>
+        <v>5498</v>
       </c>
       <c r="D288">
-        <v>7072071</v>
+        <v>7087520</v>
       </c>
       <c r="E288" t="s">
         <v>25</v>
@@ -8113,10 +8113,10 @@
         <v>9</v>
       </c>
       <c r="C289">
-        <v>7026</v>
+        <v>7043</v>
       </c>
       <c r="D289">
-        <v>8516706</v>
+        <v>8540514</v>
       </c>
       <c r="E289" t="s">
         <v>25</v>
@@ -8139,10 +8139,10 @@
         <v>9</v>
       </c>
       <c r="C290">
-        <v>18164</v>
+        <v>18207</v>
       </c>
       <c r="D290">
-        <v>24059279</v>
+        <v>24110857</v>
       </c>
       <c r="E290" t="s">
         <v>25</v>
@@ -8165,10 +8165,10 @@
         <v>9</v>
       </c>
       <c r="C291">
-        <v>8286</v>
+        <v>8327</v>
       </c>
       <c r="D291">
-        <v>10158320</v>
+        <v>10206524</v>
       </c>
       <c r="E291" t="s">
         <v>25</v>
@@ -8191,10 +8191,10 @@
         <v>9</v>
       </c>
       <c r="C292">
-        <v>19542</v>
+        <v>19561</v>
       </c>
       <c r="D292">
-        <v>24131718</v>
+        <v>24153723</v>
       </c>
       <c r="E292" t="s">
         <v>25</v>
@@ -8217,10 +8217,10 @@
         <v>9</v>
       </c>
       <c r="C293">
-        <v>4745</v>
+        <v>4763</v>
       </c>
       <c r="D293">
-        <v>6468534</v>
+        <v>6494665</v>
       </c>
       <c r="E293" t="s">
         <v>26</v>
@@ -8269,10 +8269,10 @@
         <v>9</v>
       </c>
       <c r="C295">
-        <v>15860</v>
+        <v>15908</v>
       </c>
       <c r="D295">
-        <v>20621677</v>
+        <v>20681469</v>
       </c>
       <c r="E295" t="s">
         <v>26</v>
@@ -8321,10 +8321,10 @@
         <v>9</v>
       </c>
       <c r="C297">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D297">
-        <v>390413</v>
+        <v>395913</v>
       </c>
       <c r="E297" t="s">
         <v>26</v>
@@ -8347,10 +8347,10 @@
         <v>9</v>
       </c>
       <c r="C298">
-        <v>45935</v>
+        <v>46062</v>
       </c>
       <c r="D298">
-        <v>65544069</v>
+        <v>65726569</v>
       </c>
       <c r="E298" t="s">
         <v>26</v>
@@ -8373,10 +8373,10 @@
         <v>9</v>
       </c>
       <c r="C299">
-        <v>69149</v>
+        <v>69342</v>
       </c>
       <c r="D299">
-        <v>92262911</v>
+        <v>92523181</v>
       </c>
       <c r="E299" t="s">
         <v>26</v>
@@ -8399,10 +8399,10 @@
         <v>9</v>
       </c>
       <c r="C300">
-        <v>17361</v>
+        <v>17465</v>
       </c>
       <c r="D300">
-        <v>24337081</v>
+        <v>24479680</v>
       </c>
       <c r="E300" t="s">
         <v>26</v>
@@ -8425,10 +8425,10 @@
         <v>9</v>
       </c>
       <c r="C301">
-        <v>44621</v>
+        <v>44778</v>
       </c>
       <c r="D301">
-        <v>64405373</v>
+        <v>64626115</v>
       </c>
       <c r="E301" t="s">
         <v>26</v>
@@ -8451,10 +8451,10 @@
         <v>9</v>
       </c>
       <c r="C302">
-        <v>6283</v>
+        <v>6312</v>
       </c>
       <c r="D302">
-        <v>8217078</v>
+        <v>8254775</v>
       </c>
       <c r="E302" t="s">
         <v>26</v>
@@ -8477,10 +8477,10 @@
         <v>9</v>
       </c>
       <c r="C303">
-        <v>3026</v>
+        <v>3035</v>
       </c>
       <c r="D303">
-        <v>4271854</v>
+        <v>4285243</v>
       </c>
       <c r="E303" t="s">
         <v>26</v>
@@ -8503,10 +8503,10 @@
         <v>9</v>
       </c>
       <c r="C304">
-        <v>13794</v>
+        <v>13842</v>
       </c>
       <c r="D304">
-        <v>19034057</v>
+        <v>19098950</v>
       </c>
       <c r="E304" t="s">
         <v>26</v>
@@ -8529,10 +8529,10 @@
         <v>9</v>
       </c>
       <c r="C305">
-        <v>34908</v>
+        <v>35013</v>
       </c>
       <c r="D305">
-        <v>47551202</v>
+        <v>47691042</v>
       </c>
       <c r="E305" t="s">
         <v>26</v>
@@ -8555,10 +8555,10 @@
         <v>9</v>
       </c>
       <c r="C306">
-        <v>18651</v>
+        <v>18692</v>
       </c>
       <c r="D306">
-        <v>24111949</v>
+        <v>24167291</v>
       </c>
       <c r="E306" t="s">
         <v>26</v>
@@ -8607,10 +8607,10 @@
         <v>9</v>
       </c>
       <c r="C308">
-        <v>20197</v>
+        <v>20249</v>
       </c>
       <c r="D308">
-        <v>24593625</v>
+        <v>24648754</v>
       </c>
       <c r="E308" t="s">
         <v>26</v>
@@ -8633,10 +8633,10 @@
         <v>9</v>
       </c>
       <c r="C309">
-        <v>32351</v>
+        <v>32448</v>
       </c>
       <c r="D309">
-        <v>43157795</v>
+        <v>43290827</v>
       </c>
       <c r="E309" t="s">
         <v>26</v>
@@ -8659,10 +8659,10 @@
         <v>9</v>
       </c>
       <c r="C310">
-        <v>16497</v>
+        <v>16555</v>
       </c>
       <c r="D310">
-        <v>20490706</v>
+        <v>20557775</v>
       </c>
       <c r="E310" t="s">
         <v>26</v>
@@ -8685,10 +8685,10 @@
         <v>9</v>
       </c>
       <c r="C311">
-        <v>39006</v>
+        <v>39073</v>
       </c>
       <c r="D311">
-        <v>46611604</v>
+        <v>46691541</v>
       </c>
       <c r="E311" t="s">
         <v>26</v>
@@ -8711,10 +8711,10 @@
         <v>9</v>
       </c>
       <c r="C312">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D312">
-        <v>1053913</v>
+        <v>1055413</v>
       </c>
       <c r="E312" t="s">
         <v>27</v>
@@ -8763,10 +8763,10 @@
         <v>9</v>
       </c>
       <c r="C314">
-        <v>18921</v>
+        <v>18985</v>
       </c>
       <c r="D314">
-        <v>25360244</v>
+        <v>25448263</v>
       </c>
       <c r="E314" t="s">
         <v>27</v>
@@ -8789,10 +8789,10 @@
         <v>9</v>
       </c>
       <c r="C315">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D315">
-        <v>264816</v>
+        <v>267816</v>
       </c>
       <c r="E315" t="s">
         <v>27</v>
@@ -8815,10 +8815,10 @@
         <v>9</v>
       </c>
       <c r="C316">
-        <v>686</v>
+        <v>701</v>
       </c>
       <c r="D316">
-        <v>927339</v>
+        <v>948889</v>
       </c>
       <c r="E316" t="s">
         <v>27</v>
@@ -8841,10 +8841,10 @@
         <v>9</v>
       </c>
       <c r="C317">
-        <v>58059</v>
+        <v>58274</v>
       </c>
       <c r="D317">
-        <v>83794162</v>
+        <v>84106859</v>
       </c>
       <c r="E317" t="s">
         <v>27</v>
@@ -8867,10 +8867,10 @@
         <v>9</v>
       </c>
       <c r="C318">
-        <v>100585</v>
+        <v>100972</v>
       </c>
       <c r="D318">
-        <v>137872437</v>
+        <v>138414000</v>
       </c>
       <c r="E318" t="s">
         <v>27</v>
@@ -8893,10 +8893,10 @@
         <v>9</v>
       </c>
       <c r="C319">
-        <v>115430</v>
+        <v>116235</v>
       </c>
       <c r="D319">
-        <v>165150419</v>
+        <v>166282388</v>
       </c>
       <c r="E319" t="s">
         <v>27</v>
@@ -8919,10 +8919,10 @@
         <v>9</v>
       </c>
       <c r="C320">
-        <v>63762</v>
+        <v>64020</v>
       </c>
       <c r="D320">
-        <v>93844264</v>
+        <v>94227530</v>
       </c>
       <c r="E320" t="s">
         <v>27</v>
@@ -8945,10 +8945,10 @@
         <v>9</v>
       </c>
       <c r="C321">
-        <v>29536</v>
+        <v>29653</v>
       </c>
       <c r="D321">
-        <v>40475680</v>
+        <v>40634670</v>
       </c>
       <c r="E321" t="s">
         <v>27</v>
@@ -8971,10 +8971,10 @@
         <v>9</v>
       </c>
       <c r="C322">
-        <v>7039</v>
+        <v>7049</v>
       </c>
       <c r="D322">
-        <v>10093708</v>
+        <v>10108460</v>
       </c>
       <c r="E322" t="s">
         <v>27</v>
@@ -8997,10 +8997,10 @@
         <v>9</v>
       </c>
       <c r="C323">
-        <v>18166</v>
+        <v>18232</v>
       </c>
       <c r="D323">
-        <v>25743630</v>
+        <v>25836046</v>
       </c>
       <c r="E323" t="s">
         <v>27</v>
@@ -9023,10 +9023,10 @@
         <v>9</v>
       </c>
       <c r="C324">
-        <v>113114</v>
+        <v>113557</v>
       </c>
       <c r="D324">
-        <v>155740132</v>
+        <v>156329368</v>
       </c>
       <c r="E324" t="s">
         <v>27</v>
@@ -9049,10 +9049,10 @@
         <v>9</v>
       </c>
       <c r="C325">
-        <v>29569</v>
+        <v>29676</v>
       </c>
       <c r="D325">
-        <v>39685132</v>
+        <v>39829891</v>
       </c>
       <c r="E325" t="s">
         <v>27</v>
@@ -9101,10 +9101,10 @@
         <v>9</v>
       </c>
       <c r="C327">
-        <v>31317</v>
+        <v>31410</v>
       </c>
       <c r="D327">
-        <v>38786451</v>
+        <v>38902566</v>
       </c>
       <c r="E327" t="s">
         <v>27</v>
@@ -9127,10 +9127,10 @@
         <v>9</v>
       </c>
       <c r="C328">
-        <v>54212</v>
+        <v>54409</v>
       </c>
       <c r="D328">
-        <v>73523964</v>
+        <v>73788303</v>
       </c>
       <c r="E328" t="s">
         <v>27</v>
@@ -9153,10 +9153,10 @@
         <v>9</v>
       </c>
       <c r="C329">
-        <v>45805</v>
+        <v>45980</v>
       </c>
       <c r="D329">
-        <v>58973015</v>
+        <v>59189015</v>
       </c>
       <c r="E329" t="s">
         <v>27</v>
@@ -9179,10 +9179,10 @@
         <v>9</v>
       </c>
       <c r="C330">
-        <v>55548</v>
+        <v>55706</v>
       </c>
       <c r="D330">
-        <v>72521927</v>
+        <v>72730083</v>
       </c>
       <c r="E330" t="s">
         <v>27</v>
